--- a/AliceFigure.xlsx
+++ b/AliceFigure.xlsx
@@ -718,7 +718,7 @@
                   <c:v>0.721079691516709</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20694087403599</c:v>
+                  <c:v>0.134961439588689</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0719794344473008</c:v>
@@ -2689,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2780,11 +2780,11 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:C12" si="0">B11/$B$1</f>
-        <v>0.20694087403598971</v>
+        <v>0.13496143958868895</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
